--- a/data/trans_bre/PCS12_SP_R3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R3-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.457584660802025</v>
+        <v>-1.61202885607508</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03400066633624376</v>
+        <v>0.04295233870556603</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3634578876164958</v>
+        <v>0.4481754914196019</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.866581988312749</v>
+        <v>1.870536678044016</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2855739586879576</v>
+        <v>-0.2966232902066112</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.02177736854602854</v>
+        <v>-0.06160618384004736</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.00651278492200221</v>
+        <v>-0.01174372642374727</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.02244391607977352</v>
+        <v>0.1032271958287706</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.115815519752466</v>
+        <v>3.806110559156593</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.385339186975811</v>
+        <v>5.877717622304708</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.130422175511263</v>
+        <v>5.398005218400511</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.8989124510825</v>
+        <v>10.8988805479411</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.341571930417769</v>
+        <v>1.19901762350686</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.533379697275367</v>
+        <v>2.411739678507478</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4.797448784443881</v>
+        <v>5.564152031209082</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>23.94269543427724</v>
+        <v>23.50623683283917</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.246432618674425</v>
+        <v>2.418288171463306</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.481934717979033</v>
+        <v>-2.352412349256656</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.6177970413870526</v>
+        <v>-0.7159327018065648</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-6.462348116283779</v>
+        <v>-6.763775463553245</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3442558443428973</v>
+        <v>0.4203680171737915</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3183038406882623</v>
+        <v>-0.3073255395173372</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.143458527348058</v>
+        <v>-0.1232576372297857</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5345705845805026</v>
+        <v>-0.5502621751794665</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.882966785916569</v>
+        <v>7.864501745874467</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.500966307188869</v>
+        <v>3.457176453743786</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.221055549867773</v>
+        <v>4.999683127608212</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.395336899087314</v>
+        <v>1.579761420829974</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.416600405388879</v>
+        <v>2.515385773789266</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6718588050241402</v>
+        <v>0.7080365020025012</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.397378318457954</v>
+        <v>1.542361273144166</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1752440033933957</v>
+        <v>0.2466172634313447</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>2.914047317096352</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.777950372772344</v>
+        <v>3.77795037277235</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9945975561783967</v>
@@ -849,7 +849,7 @@
         <v>0.395155307877087</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3418214073763819</v>
+        <v>0.3418214073763826</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.58378726815743</v>
+        <v>3.702686826324635</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.259339474427247</v>
+        <v>2.551151353868272</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.3512120648390368</v>
+        <v>-0.2538133976399383</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4010891670549404</v>
+        <v>0.3669812942448279</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4167197018465758</v>
+        <v>0.4192124799963139</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2192913993805743</v>
+        <v>0.2445669041708165</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.06164094736119759</v>
+        <v>-0.03795335272041756</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.02794181823383276</v>
+        <v>0.02546523462399159</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.927290122915773</v>
+        <v>10.25380568951838</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.107386957672761</v>
+        <v>9.353213176716238</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.237722909380332</v>
+        <v>6.073726298353586</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.469562627218728</v>
+        <v>7.33953767457727</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.763876930245306</v>
+        <v>1.842585444021886</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.21582087427086</v>
+        <v>1.237332858923708</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.011106570360005</v>
+        <v>1.006192313783325</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.816421007439887</v>
+        <v>0.82433624894047</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.120290517963348</v>
+        <v>8.555301510981428</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.26764541835724</v>
+        <v>2.594268980601007</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.2394275979119535</v>
+        <v>-0.5236744407084135</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.386939841995845</v>
+        <v>0.388163184692444</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6008962019279858</v>
+        <v>0.629185766016754</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.157003816403209</v>
+        <v>0.1715065897555783</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.01094192708369697</v>
+        <v>-0.03033308707118617</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.01454506815560813</v>
+        <v>0.01600400941263918</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>18.01967028566746</v>
+        <v>17.51583379854001</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.33934191811658</v>
+        <v>11.0803954717447</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.468191991309121</v>
+        <v>8.398625360247454</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.424667917057253</v>
+        <v>8.617553952903407</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.966651441188267</v>
+        <v>1.907524377910339</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.044704114170221</v>
+        <v>1.008731577400433</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.669782096613189</v>
+        <v>0.6682106108188252</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.49223801846571</v>
+        <v>0.4753006569395956</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>12.30326777870234</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.430527954569382</v>
+        <v>7.430527954569377</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1724729412073737</v>
@@ -1049,7 +1049,7 @@
         <v>0.5122208842550743</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2451548032514213</v>
+        <v>0.2451548032514211</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.772627888792689</v>
+        <v>-2.019125520002142</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>13.55368063957147</v>
+        <v>13.75412421374313</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.688476553908822</v>
+        <v>5.847017573573734</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.495781519749893</v>
+        <v>3.005172967317321</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.0540999764851416</v>
+        <v>-0.07015545526291937</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4940180559960203</v>
+        <v>0.5009679265443809</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2137317123169292</v>
+        <v>0.2095292836103983</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.07895577369767756</v>
+        <v>0.09183821799490829</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.14057568487978</v>
+        <v>11.08805670147698</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>26.55615840226821</v>
+        <v>26.22359908539014</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18.50887408809819</v>
+        <v>18.03752798307181</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.16526098233977</v>
+        <v>12.40028421689981</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4552836299261311</v>
+        <v>0.4298778966637332</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.25448302796526</v>
+        <v>1.251600774463047</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8819531945762537</v>
+        <v>0.8648898777508821</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.4497438335197752</v>
+        <v>0.4507572397898895</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>15.68612328380136</v>
+        <v>15.43838446699941</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>10.56126049792927</v>
+        <v>10.32683296264965</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>11.96103914110802</v>
+        <v>11.64754522414131</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10.96853194808457</v>
+        <v>11.25776484878371</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3669943461279489</v>
+        <v>0.364926975632369</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2176528840752248</v>
+        <v>0.2220791916312307</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3140696753498346</v>
+        <v>0.3243923361627161</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.3204561828111624</v>
+        <v>0.3264934879915716</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>30.19736554418269</v>
+        <v>29.70572458607455</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>25.8669505020774</v>
+        <v>26.31420620909954</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>26.02112892954699</v>
+        <v>26.61846458778292</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>21.83808651555264</v>
+        <v>21.50660588837237</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8894734904307677</v>
+        <v>0.8934525166898087</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6634007500658566</v>
+        <v>0.6968312723212642</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8599011908915262</v>
+        <v>0.9048487811368261</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7691967923402113</v>
+        <v>0.7543084166037483</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>5.586157683985133</v>
+        <v>6.25165139067764</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.371862269501348</v>
+        <v>6.578503409923001</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.967735258380189</v>
+        <v>6.992009230467532</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>15.3100038240597</v>
+        <v>15.19681830073119</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.07651146822835518</v>
+        <v>0.08628960624946176</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08372258397609121</v>
+        <v>0.08832735687805858</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09313181859676463</v>
+        <v>0.1043646053798473</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.2509874217067906</v>
+        <v>0.2472958956304271</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>21.29930384766732</v>
+        <v>20.97972461562134</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>20.19338043040606</v>
+        <v>21.01937568135682</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>20.96837049180206</v>
+        <v>21.56498086649739</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>26.3067719383086</v>
+        <v>27.07263017556289</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3420623681817131</v>
+        <v>0.3325404164429365</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3107026118868477</v>
+        <v>0.3329432542258368</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3685547809916683</v>
+        <v>0.374673295131311</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.4958027343590609</v>
+        <v>0.5149579342973873</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>9.459649322304371</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9.173597076226944</v>
+        <v>9.173597076226942</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7214353064448424</v>
@@ -1349,7 +1349,7 @@
         <v>0.5669527672555508</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.4335463068274151</v>
+        <v>0.4335463068274149</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>9.501165778461578</v>
+        <v>9.586124769980184</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>9.111615501126181</v>
+        <v>9.302247096885473</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7.422651409168582</v>
+        <v>7.349417200686075</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7.109831399896077</v>
+        <v>7.30774126372896</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.5656642655497136</v>
+        <v>0.5708019396988604</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4765001370251639</v>
+        <v>0.4917781745036811</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4146496360667573</v>
+        <v>0.4159518925564639</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3200521235134228</v>
+        <v>0.3239145290788994</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>13.31772901337341</v>
+        <v>13.59307871903723</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>13.34291635870432</v>
+        <v>13.61177859964578</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>11.42210407291815</v>
+        <v>11.46094122517846</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>10.99113826733335</v>
+        <v>11.02500090298635</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8994881477978343</v>
+        <v>0.9062102138165012</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7956503867057256</v>
+        <v>0.7988663092162762</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7190012218579577</v>
+        <v>0.7179357611884459</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5472224911951068</v>
+        <v>0.5490440838659895</v>
       </c>
     </row>
     <row r="28">
